--- a/Data/aearep-1100/candidatepackages.xlsx
+++ b/Data/aearep-1100/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,42 +25,39 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
+    <t>ivreg2</t>
+  </si>
+  <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>ivreg2</t>
+    <t>coefplot</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
+    <t>diff</t>
   </si>
   <si>
     <t>spmap</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>binscatter</t>
   </si>
   <si>
     <t>carryforward</t>
   </si>
   <si>
+    <t>synth</t>
+  </si>
+  <si>
     <t>ivreghdfe</t>
   </si>
   <si>
-    <t>synth</t>
-  </si>
-  <si>
     <t>matchit</t>
   </si>
   <si>
@@ -76,15 +73,15 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>lambda</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
+    <t>poverty</t>
+  </si>
+  <si>
     <t>cluster</t>
   </si>
   <si>
@@ -94,21 +91,15 @@
     <t>rev</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>sumstats</t>
   </si>
   <si>
+    <t>ngram</t>
+  </si>
+  <si>
     <t>art</t>
   </si>
   <si>
-    <t>ngram</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
@@ -124,15 +115,9 @@
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>flex</t>
   </si>
   <si>
@@ -151,24 +136,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1100</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1100/119844/programs</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1100/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>NYvalueadded_stockstaiger.do</t>
   </si>
   <si>
@@ -248,9 +221,6 @@
   </si>
   <si>
     <t>valueadded_identification_NY.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -294,7 +264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -302,13 +272,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -316,7 +286,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -340,7 +310,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -352,7 +322,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -364,7 +334,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -376,7 +346,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -388,7 +358,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -400,7 +370,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -412,7 +382,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -424,7 +394,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -436,7 +406,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -448,7 +418,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -460,7 +430,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -472,7 +442,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -484,7 +454,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -496,7 +466,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -508,7 +478,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -520,7 +490,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -532,10 +502,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>267</v>
+        <v>390</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D20"/>
     </row>
@@ -544,10 +514,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D21"/>
     </row>
@@ -556,10 +526,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="C22">
-        <v>0.13826259970664978</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D22"/>
     </row>
@@ -568,10 +538,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C23">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D23"/>
     </row>
@@ -580,10 +550,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="C24">
-        <v>0.18766577541828156</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D24"/>
     </row>
@@ -592,10 +562,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>606</v>
+        <v>746</v>
       </c>
       <c r="C25">
-        <v>0.20092837512493134</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D25"/>
     </row>
@@ -604,10 +574,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>698</v>
+        <v>812</v>
       </c>
       <c r="C26">
-        <v>0.23143236339092255</v>
+        <v>0.26842975616455078</v>
       </c>
       <c r="D26"/>
     </row>
@@ -616,10 +586,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>811</v>
+        <v>986</v>
       </c>
       <c r="C27">
-        <v>0.26889920234680176</v>
+        <v>0.32595041394233704</v>
       </c>
       <c r="D27"/>
     </row>
@@ -628,10 +598,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>827</v>
+        <v>1011</v>
       </c>
       <c r="C28">
-        <v>0.27420425415039062</v>
+        <v>0.33421486616134644</v>
       </c>
       <c r="D28"/>
     </row>
@@ -640,10 +610,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>942</v>
+        <v>1125</v>
       </c>
       <c r="C29">
-        <v>0.31233420968055725</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D29"/>
     </row>
@@ -652,10 +622,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>966</v>
+        <v>1428</v>
       </c>
       <c r="C30">
-        <v>0.32029178738594055</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D30"/>
     </row>
@@ -664,10 +634,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1124</v>
+        <v>1497</v>
       </c>
       <c r="C31">
-        <v>0.37267905473709106</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D31"/>
     </row>
@@ -676,10 +646,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1194</v>
+        <v>1767</v>
       </c>
       <c r="C32">
-        <v>0.39588859677314758</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D32"/>
     </row>
@@ -688,10 +658,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1553</v>
+        <v>1880</v>
       </c>
       <c r="C33">
-        <v>0.51492041349411011</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D33"/>
     </row>
@@ -700,10 +670,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1660</v>
+        <v>2030</v>
       </c>
       <c r="C34">
-        <v>0.55039787292480469</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D34"/>
     </row>
@@ -712,10 +682,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1755</v>
+        <v>2287</v>
       </c>
       <c r="C35">
-        <v>0.58189654350280762</v>
+        <v>0.75603306293487549</v>
       </c>
       <c r="D35"/>
     </row>
@@ -724,72 +694,12 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1798</v>
+        <v>2436</v>
       </c>
       <c r="C36">
-        <v>0.5961538553237915</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1817</v>
-      </c>
-      <c r="C37">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1835</v>
-      </c>
-      <c r="C38">
-        <v>0.60842174291610718</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1859</v>
-      </c>
-      <c r="C39">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2153</v>
-      </c>
-      <c r="C40">
-        <v>0.7138594388961792</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>2424</v>
-      </c>
-      <c r="C41">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D41"/>
     </row>
   </sheetData>
 </worksheet>
@@ -797,255 +707,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
